--- a/wk10-excel-instructions.xlsx
+++ b/wk10-excel-instructions.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sthornt1/Documents/GitHub/Stat11/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB621C27-99F2-2341-8FDA-861BD6AE2F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C64855-5E8E-A642-A2E6-9D6EF1B61C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9180" yWindow="500" windowWidth="35060" windowHeight="20820" activeTab="1" xr2:uid="{6BE588FC-DBDE-7247-A050-7B1F081976D6}"/>
+    <workbookView xWindow="9180" yWindow="500" windowWidth="35060" windowHeight="20820" xr2:uid="{6BE588FC-DBDE-7247-A050-7B1F081976D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -69,25 +69,25 @@
     <t>Standard error (SE(phat))</t>
   </si>
   <si>
-    <t>=($B$2/$B$3) +NORM.INV(0.05/2,0,1)*$B$4</t>
-  </si>
-  <si>
-    <t>=($B$2/$B$3) - NORM.INV(0.05/2,0,1)*$B$4</t>
-  </si>
-  <si>
     <t>=SQRT((B2/B3)*(1-(B2/B3))/B3)</t>
   </si>
   <si>
     <t>=SQRT(VAR(A2:A51)/D2)</t>
   </si>
   <si>
-    <t>=$D$3-T.INV(0.05/2,$D$2-1)*$D$4</t>
-  </si>
-  <si>
-    <t>=$D$3+T.INV(0.05/2,$D$2-1)*$D$4</t>
-  </si>
-  <si>
     <t>=COUNT(A2:A51)</t>
+  </si>
+  <si>
+    <t>=($B$2/$B$3) +NORM.INV((1-0.9)/2,0,1)*$B$4</t>
+  </si>
+  <si>
+    <t>=($B$2/$B$3) - NORM.INV((1-0.9)/2,0,1)*$B$4</t>
+  </si>
+  <si>
+    <t>=$D$3-T.INV((1-0.95)/2,$D$2-1)*$D$4</t>
+  </si>
+  <si>
+    <t>=$D$3+T.INV((1-0.95)/2,$D$2-1)*$D$4</t>
   </si>
 </sst>
 </file>
@@ -458,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2B2A72A-A39F-F04F-86DE-FC6A2C37DBCE}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -492,7 +492,7 @@
         <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -520,7 +520,7 @@
         <v>3.6443403143134989</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -545,11 +545,11 @@
         <v>3</v>
       </c>
       <c r="D7">
-        <f>$D$3-_xlfn.T.INV(0.05/2,$D$2-1)*$D$4</f>
-        <v>50.303576051316192</v>
+        <f>$D$3+_xlfn.T.INV((1-0.95)/2,$D$2-1)*$D$4</f>
+        <v>35.656423948683802</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -560,11 +560,11 @@
         <v>4</v>
       </c>
       <c r="D8">
-        <f>$D$3+_xlfn.T.INV(0.05/2,$D$2-1)*$D$4</f>
-        <v>35.656423948683802</v>
+        <f>$D$3-_xlfn.T.INV((1-0.95)/2,$D$2-1)*$D$4</f>
+        <v>50.303576051316192</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -793,14 +793,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E526BF4-6230-F944-8BA3-87D48B755E92}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.6640625" customWidth="1"/>
-    <col min="3" max="3" width="39.6640625" customWidth="1"/>
+    <col min="3" max="3" width="44.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -834,7 +834,7 @@
         <v>0.10615894693111677</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -848,11 +848,11 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <f>($B$2/$B$3) +_xlfn.NORM.INV(0.05/2,0,1)*$B$4</f>
-        <v>0.33738683283285764</v>
+        <f>($B$2/$B$3) +_xlfn.NORM.INV((1-0.9)/2,0,1)*$B$4</f>
+        <v>0.37083861656154909</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -860,11 +860,11 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <f>($B$2/$B$3) - _xlfn.NORM.INV(0.05/2,0,1)*$B$4</f>
-        <v>0.75352225807623319</v>
+        <f>($B$2/$B$3) - _xlfn.NORM.INV((1-0.9)/2,0,1)*$B$4</f>
+        <v>0.72007047434754168</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
